--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>3722.046788174578</v>
+        <v>0.1835299872075556</v>
       </c>
       <c r="R2">
-        <v>33498.4210935712</v>
+        <v>1.651769884868</v>
       </c>
       <c r="S2">
-        <v>0.5136239916494624</v>
+        <v>0.0006874568812587793</v>
       </c>
       <c r="T2">
-        <v>0.5136239916494624</v>
+        <v>0.0006874568812587794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>47.19119966822444</v>
+        <v>1.015488381833222</v>
       </c>
       <c r="R3">
-        <v>424.72079701402</v>
+        <v>9.139395436499001</v>
       </c>
       <c r="S3">
-        <v>0.006512151438109043</v>
+        <v>0.003803762461663006</v>
       </c>
       <c r="T3">
-        <v>0.006512151438109045</v>
+        <v>0.003803762461663006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>271.9682702948467</v>
+        <v>5.852375456724333</v>
       </c>
       <c r="R4">
-        <v>2447.71443265362</v>
+        <v>52.67137911051901</v>
       </c>
       <c r="S4">
-        <v>0.03753027206284734</v>
+        <v>0.02192151724440106</v>
       </c>
       <c r="T4">
-        <v>0.03753027206284735</v>
+        <v>0.02192151724440106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>1666.05267315856</v>
+        <v>3.817684131531999</v>
       </c>
       <c r="R5">
-        <v>14994.47405842704</v>
+        <v>34.35915718378799</v>
       </c>
       <c r="S5">
-        <v>0.2299070035886449</v>
+        <v>0.01430007851374206</v>
       </c>
       <c r="T5">
-        <v>0.2299070035886448</v>
+        <v>0.01430007851374206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>21.123599146201</v>
@@ -818,10 +818,10 @@
         <v>190.112392315809</v>
       </c>
       <c r="S6">
-        <v>0.002914951887747749</v>
+        <v>0.07912365608997399</v>
       </c>
       <c r="T6">
-        <v>0.002914951887747749</v>
+        <v>0.07912365608997401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>121.737713018181</v>
@@ -880,10 +880,10 @@
         <v>1095.639417163629</v>
       </c>
       <c r="S7">
-        <v>0.01679920045425879</v>
+        <v>0.4559986615615569</v>
       </c>
       <c r="T7">
-        <v>0.01679920045425879</v>
+        <v>0.4559986615615571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>1286.225344779911</v>
+        <v>2.947327036804444</v>
       </c>
       <c r="R8">
-        <v>11576.0281030192</v>
+        <v>26.52594333124</v>
       </c>
       <c r="S8">
-        <v>0.1774927166003099</v>
+        <v>0.01103994112133763</v>
       </c>
       <c r="T8">
-        <v>0.1774927166003099</v>
+        <v>0.01103994112133764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
         <v>16.30783289900778</v>
@@ -1004,10 +1004,10 @@
         <v>146.77049609107</v>
       </c>
       <c r="S9">
-        <v>0.00225040003670903</v>
+        <v>0.06108501458218199</v>
       </c>
       <c r="T9">
-        <v>0.00225040003670903</v>
+        <v>0.061085014582182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>93.98390244329666</v>
@@ -1066,10 +1066,10 @@
         <v>845.85512198967</v>
       </c>
       <c r="S10">
-        <v>0.01296931228191093</v>
+        <v>0.3520399115438844</v>
       </c>
       <c r="T10">
-        <v>0.01296931228191093</v>
+        <v>0.3520399115438845</v>
       </c>
     </row>
   </sheetData>
